--- a/app/dataCollection/komentar.xlsx
+++ b/app/dataCollection/komentar.xlsx
@@ -47,7 +47,7 @@
     <t>anger</t>
   </si>
   <si>
-    <t>polisi kok jadi pelaku pemerasan juga!</t>
+    <t>adi polisi kok jadi pelaku pemerasan juga!</t>
   </si>
   <si>
     <t>brengsek! ini polisi kenapa lama sekali gerak</t>
@@ -5112,13 +5112,10 @@
   <dimension ref="A1:B1303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="43.7142857142857" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
